--- a/biology/Médecine/Dysurie/Dysurie.xlsx
+++ b/biology/Médecine/Dysurie/Dysurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dysurie est la difficulté à l'évacuation de l'urine, sans tenir compte de la douleur qui peut être associée. Elle est souvent méconnue car indolore et d'installation progressive.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On décrit la dysurie d'attente, initiale au début de la miction (l'urine sort difficilement avec un délai de quelques secondes) et la dysurie de poussée, parfois terminale. 
 Cette dysurie peut s'accompagner d'une diminution de la force du jet, d'un allongement du temps de la miction. La durée d'une miction normale varie de 30 à 35 secondes, en dysurie elle peut atteindre 1 minute. On en rapproche les mictions en deux temps, les gouttes retardataires et la sensation de vessie non vide en fin de miction.
@@ -544,7 +558,9 @@
           <t>Retentissement de la dysurie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>À la suite d'une dysurie, la vessie va subir des changements pour une compensation de l'obstacle qui bloque le libre cours des urines de l'extérieur.
 Stade de vessie de lutte : C'est le premier stade. Le muscle de la vessie (détrusor) se contracte plus que le normal pour lutter contre le rétrécissement de l’urètre. Ces contractions induisent après un certain temps une hypertrophie inégale des muscles de la vessie dessinant sous la muqueuse des colonnes délimitant entre elles des cellules. C'est la vessie à cellules et colonnes qui constitue un premier signe de vessie de lutte.
@@ -579,7 +595,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Endométriose (femme)
 Hypotension
@@ -625,7 +643,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Distension vésicale
 Rétention aiguë d'urine
